--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\IdeaProjects\qamid-diplom\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912D2ECB-DF1D-4B38-B655-9FCB2271363E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,115 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Форма логина</t>
+  </si>
+  <si>
+    <t>Вход без ввода логина и пароля</t>
+  </si>
+  <si>
+    <t>Вход с неверными данными</t>
+  </si>
+  <si>
+    <t>Вход под существующим пользователем</t>
+  </si>
+  <si>
+    <t>Разворачивание/сворачивание блока новостей на главном экране</t>
+  </si>
+  <si>
+    <t>Разворачивание/сворачивание блока претензий на главном экране</t>
+  </si>
+  <si>
+    <t>Открытие странички новостей с главного экрана</t>
+  </si>
+  <si>
+    <t>Открытие странички претензий с главного экрана</t>
+  </si>
+  <si>
+    <t>Разворачивание/сворачивание одной новости на главном экране</t>
+  </si>
+  <si>
+    <t>Открытие претензии с главного экрана</t>
+  </si>
+  <si>
+    <t>Возврат из претензии к главному экрану</t>
+  </si>
+  <si>
+    <t>Создание претензии с главного экрана</t>
+  </si>
+  <si>
+    <t>Редактирование претензии с главного экрана</t>
+  </si>
+  <si>
+    <t>Открытие экрана претензий из меню</t>
+  </si>
+  <si>
+    <t>Фильтрация претензий</t>
+  </si>
+  <si>
+    <t>Редактирование претензии с экрана претензий</t>
+  </si>
+  <si>
+    <t>Создание претензии с экрана претензий</t>
+  </si>
+  <si>
+    <t>Возврат из претензии к экрану претензий</t>
+  </si>
+  <si>
+    <t>Открытие экрана новостей из меню</t>
+  </si>
+  <si>
+    <t>Смена порядка новостей</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей</t>
+  </si>
+  <si>
+    <t>Переход на экран управления новостями</t>
+  </si>
+  <si>
+    <t>Создание новости</t>
+  </si>
+  <si>
+    <t>Редактирование новости</t>
+  </si>
+  <si>
+    <t>Удаление новости</t>
+  </si>
+  <si>
+    <t>Открытие экрана о приложение из меню</t>
+  </si>
+  <si>
+    <t>Открытие экрана тематических цитат</t>
+  </si>
+  <si>
+    <t>Работа с тематическими цитатами</t>
+  </si>
+  <si>
+    <t>Выход из приложения</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Пройдено</t>
+  </si>
+  <si>
+    <t>Ошибка</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +142,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,18 +164,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF64E32"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +501,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C30">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Check.xlsx
+++ b/Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\IdeaProjects\qamid-diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912D2ECB-DF1D-4B38-B655-9FCB2271363E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7B056E-6B4F-4F80-86CC-EC21559B589A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>№</t>
   </si>
@@ -36,21 +36,6 @@
     <t>Форма логина</t>
   </si>
   <si>
-    <t>Вход без ввода логина и пароля</t>
-  </si>
-  <si>
-    <t>Вход с неверными данными</t>
-  </si>
-  <si>
-    <t>Вход под существующим пользователем</t>
-  </si>
-  <si>
-    <t>Разворачивание/сворачивание блока новостей на главном экране</t>
-  </si>
-  <si>
-    <t>Разворачивание/сворачивание блока претензий на главном экране</t>
-  </si>
-  <si>
     <t>Открытие странички новостей с главного экрана</t>
   </si>
   <si>
@@ -127,6 +112,18 @@
   </si>
   <si>
     <t>Ошибка</t>
+  </si>
+  <si>
+    <t>Авторизация</t>
+  </si>
+  <si>
+    <t>Разворачивание/сворачивание блоков на главном экране</t>
+  </si>
+  <si>
+    <t>Проверка полей ввода претензии</t>
+  </si>
+  <si>
+    <t>Проверка полей ввода новости</t>
   </si>
 </sst>
 </file>
@@ -156,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,11 +176,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,11 +203,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -211,13 +223,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF64E32"/>
         </patternFill>
       </fill>
     </dxf>
@@ -504,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -534,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -542,18 +547,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -562,16 +567,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -580,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -589,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -598,16 +603,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -615,8 +620,8 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
+      <c r="B11" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -625,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -634,7 +639,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -643,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -652,7 +657,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -661,7 +666,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -670,7 +675,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -679,7 +684,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -688,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -697,7 +702,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -706,7 +711,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -715,7 +720,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -723,8 +728,8 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>23</v>
+      <c r="B23" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -733,7 +738,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -742,7 +747,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -751,7 +756,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C26" s="3"/>
     </row>
@@ -760,7 +765,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -769,7 +774,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -778,26 +783,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="3"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Ошибка">
-      <formula>NOT(ISERROR(SEARCH("Ошибка",C2)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Пройдено">
       <formula>NOT(ISERROR(SEARCH("Пройдено",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\IdeaProjects\qamid-diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7B056E-6B4F-4F80-86CC-EC21559B589A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52ABD9E-BAB7-4B8D-B2A4-24009D47280D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>№</t>
   </si>
@@ -191,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -203,10 +203,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -507,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +549,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -560,7 +559,9 @@
       <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -569,7 +570,9 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -578,7 +581,9 @@
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -587,7 +592,9 @@
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -596,7 +603,9 @@
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -605,7 +614,9 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -614,7 +625,9 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -623,7 +636,9 @@
       <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -632,7 +647,9 @@
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -641,7 +658,9 @@
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
@@ -650,7 +669,9 @@
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -659,7 +680,9 @@
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -668,7 +691,9 @@
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -677,7 +702,9 @@
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -686,7 +713,9 @@
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -695,7 +724,9 @@
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -704,7 +735,9 @@
       <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -713,7 +746,9 @@
       <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -722,7 +757,9 @@
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -731,7 +768,9 @@
       <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
@@ -740,7 +779,9 @@
       <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -749,7 +790,9 @@
       <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
@@ -758,7 +801,9 @@
       <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -767,7 +812,9 @@
       <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
@@ -776,7 +823,9 @@
       <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -785,12 +834,9 @@
       <c r="B29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="C29" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C30">
